--- a/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound4.xlsx
+++ b/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound4.xlsx
@@ -91,6 +91,24 @@
     <t>95th Percentile Score</t>
   </si>
   <si>
+    <t>OGDC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Germantown, MD</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>Tukwila, WA</t>
+  </si>
+  <si>
     <t>MIA</t>
   </si>
   <si>
@@ -98,24 +116,6 @@
   </si>
   <si>
     <t>Fort Lauderdale, FL</t>
-  </si>
-  <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>Tukwila, WA</t>
-  </si>
-  <si>
-    <t>OGDC</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Germantown, MD</t>
   </si>
   <si>
     <t>DAL</t>
@@ -166,7 +166,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B8F1"/>
+      <color rgb="FFC50A2A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,7 +174,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,7 +198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFC50A2A"/>
+      <color rgb="FF00B8F1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,7 +206,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,13 +261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF00AA"/>
+        <fgColor rgb="FF092051"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1785C8"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,13 +285,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF092051"/>
+        <fgColor rgb="FFFF00AA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF1785C8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,10 +382,10 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -802,27 +802,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="15">
-        <v>0.2170376606100383</v>
+        <v>0.4747687505628151</v>
       </c>
       <c r="C3" s="15"/>
       <c r="E3" s="15">
-        <v>0.8577874694649139</v>
+        <v>0.8855880589849986</v>
       </c>
       <c r="F3" s="15"/>
       <c r="H3" s="15">
-        <v>0.4614534199522766</v>
+        <v>0.1814097528610857</v>
       </c>
       <c r="I3" s="15"/>
       <c r="K3" s="15">
-        <v>0.4866459272697745</v>
+        <v>0.5657692568578553</v>
       </c>
       <c r="L3" s="15"/>
       <c r="N3" s="15">
-        <v>0.7374130699761152</v>
+        <v>0.707823919873254</v>
       </c>
       <c r="O3" s="15"/>
       <c r="Q3" s="15">
-        <v>0.4364973133614524</v>
+        <v>0.3503138056925146</v>
       </c>
       <c r="R3" s="15"/>
     </row>
@@ -831,27 +831,27 @@
         <v>2</v>
       </c>
       <c r="B4" s="15">
-        <v>0.7018183808509526</v>
+        <v>0.9600000588980362</v>
       </c>
       <c r="C4" s="15"/>
       <c r="E4" s="15">
-        <v>0.99380735560591</v>
+        <v>0.9933862296294321</v>
       </c>
       <c r="F4" s="15"/>
       <c r="H4" s="15">
-        <v>0.9622486081030646</v>
+        <v>0.6918885428798826</v>
       </c>
       <c r="I4" s="15"/>
       <c r="K4" s="15">
-        <v>0.9893578476885372</v>
+        <v>0.9887231365567064</v>
       </c>
       <c r="L4" s="15"/>
       <c r="N4" s="15">
-        <v>0.744432992773579</v>
+        <v>0.7343350927093227</v>
       </c>
       <c r="O4" s="15"/>
       <c r="Q4" s="15">
-        <v>0.9633832373290883</v>
+        <v>0.9612426103942822</v>
       </c>
       <c r="R4" s="15"/>
     </row>
@@ -860,27 +860,27 @@
         <v>3</v>
       </c>
       <c r="B5" s="14">
-        <v>15.23210195530157</v>
+        <v>45.57780285032496</v>
       </c>
       <c r="C5" s="14"/>
       <c r="E5" s="14">
-        <v>85.24754967008114</v>
+        <v>87.97309829199548</v>
       </c>
       <c r="F5" s="14"/>
       <c r="H5" s="14">
-        <v>44.40329110534771</v>
+        <v>12.55153295712562</v>
       </c>
       <c r="I5" s="14"/>
       <c r="K5" s="14">
-        <v>48.14669671900165</v>
+        <v>55.93891542078556</v>
       </c>
       <c r="L5" s="14"/>
       <c r="N5" s="14">
-        <v>54.89546185926721</v>
+        <v>51.97799438220022</v>
       </c>
       <c r="O5" s="14"/>
       <c r="Q5" s="14">
-        <v>42.05141948316055</v>
+        <v>33.67365570410281</v>
       </c>
       <c r="R5" s="14"/>
     </row>
@@ -889,40 +889,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="16">
-        <v>0.8098341</v>
+        <v>0.3714934</v>
       </c>
       <c r="C6" s="16">
-        <v>0.1901659</v>
+        <v>0.5989536</v>
       </c>
       <c r="E6" s="16">
-        <v>0.453706</v>
+        <v>0.4389084</v>
       </c>
       <c r="F6" s="16">
-        <v>0.5462939999999999</v>
+        <v>0.531784</v>
       </c>
       <c r="H6" s="16">
-        <v>0.386118</v>
+        <v>0.8026808</v>
       </c>
       <c r="I6" s="16">
-        <v>0.613882</v>
+        <v>0.1827664</v>
       </c>
       <c r="K6" s="16">
-        <v>0.5606565</v>
+        <v>0.548547</v>
       </c>
       <c r="L6" s="16">
-        <v>0.4393435</v>
+        <v>0.4267612</v>
       </c>
       <c r="N6" s="16">
-        <v>0.2115489</v>
+        <v>0.2027586</v>
       </c>
       <c r="O6" s="16">
-        <v>0.7884511</v>
+        <v>0.7801129999999999</v>
       </c>
       <c r="Q6" s="16">
-        <v>0.3878275</v>
+        <v>0.3734496</v>
       </c>
       <c r="R6" s="16">
-        <v>0.6121725</v>
+        <v>0.5974969999999999</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -930,40 +930,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="17">
-        <v>41.2969774</v>
+        <v>17.9280174</v>
       </c>
       <c r="C7" s="17">
-        <v>24.072076</v>
+        <v>21.9418512</v>
       </c>
       <c r="E7" s="17">
-        <v>18.821792</v>
+        <v>18.8156902</v>
       </c>
       <c r="F7" s="17">
-        <v>20.544403</v>
+        <v>20.5478244</v>
       </c>
       <c r="H7" s="17">
-        <v>17.9201466</v>
+        <v>41.3028622</v>
       </c>
       <c r="I7" s="17">
-        <v>21.9458192</v>
+        <v>24.0628754</v>
       </c>
       <c r="K7" s="17">
-        <v>29.698851</v>
+        <v>29.7052796</v>
       </c>
       <c r="L7" s="17">
-        <v>26.7349484</v>
+        <v>26.734763</v>
       </c>
       <c r="N7" s="17">
-        <v>19.4928566</v>
+        <v>19.4879854</v>
       </c>
       <c r="O7" s="17">
-        <v>33.6223306</v>
+        <v>33.6162108</v>
       </c>
       <c r="Q7" s="17">
-        <v>16.9783262</v>
+        <v>16.9780582</v>
       </c>
       <c r="R7" s="17">
-        <v>21.192529</v>
+        <v>21.1960612</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -971,10 +971,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="17">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C8" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="17">
         <v>6</v>
@@ -983,10 +983,10 @@
         <v>5</v>
       </c>
       <c r="H8" s="17">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I8" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8" s="17">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1012,10 +1012,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="17">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C9" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="17">
         <v>7</v>
@@ -1024,10 +1024,10 @@
         <v>8</v>
       </c>
       <c r="H9" s="17">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I9" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K9" s="17">
         <v>13</v>
@@ -1053,10 +1053,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="17">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C10" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="17">
         <v>9</v>
@@ -1065,10 +1065,10 @@
         <v>10</v>
       </c>
       <c r="H10" s="17">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I10" s="17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="17">
         <v>15</v>
@@ -1094,22 +1094,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="17">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C11" s="17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="17">
         <v>11</v>
       </c>
       <c r="H11" s="17">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I11" s="17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" s="17">
         <v>17</v>
@@ -1135,10 +1135,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="17">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C12" s="17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="17">
         <v>12</v>
@@ -1147,10 +1147,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="17">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I12" s="17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" s="17">
         <v>20</v>
@@ -1176,10 +1176,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="17">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C13" s="17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="17">
         <v>13</v>
@@ -1188,10 +1188,10 @@
         <v>14</v>
       </c>
       <c r="H13" s="17">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I13" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K13" s="17">
         <v>21</v>
@@ -1217,10 +1217,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="17">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C14" s="17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="17">
         <v>14</v>
@@ -1229,10 +1229,10 @@
         <v>16</v>
       </c>
       <c r="H14" s="17">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I14" s="17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K14" s="17">
         <v>24</v>
@@ -1258,10 +1258,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="17">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C15" s="17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="17">
         <v>16</v>
@@ -1270,10 +1270,10 @@
         <v>17</v>
       </c>
       <c r="H15" s="17">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I15" s="17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K15" s="17">
         <v>24</v>
@@ -1299,10 +1299,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="17">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C16" s="17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="17">
         <v>17</v>
@@ -1311,10 +1311,10 @@
         <v>18</v>
       </c>
       <c r="H16" s="17">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I16" s="17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K16" s="17">
         <v>27</v>
@@ -1340,10 +1340,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="17">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C17" s="17">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="17">
         <v>18</v>
@@ -1352,10 +1352,10 @@
         <v>20</v>
       </c>
       <c r="H17" s="17">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I17" s="17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K17" s="17">
         <v>28</v>
@@ -1381,10 +1381,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="17">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C18" s="17">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18" s="17">
         <v>19</v>
@@ -1393,10 +1393,10 @@
         <v>21</v>
       </c>
       <c r="H18" s="17">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I18" s="17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K18" s="17">
         <v>31</v>
@@ -1422,10 +1422,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="17">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C19" s="17">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" s="17">
         <v>20</v>
@@ -1434,10 +1434,10 @@
         <v>22</v>
       </c>
       <c r="H19" s="17">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I19" s="17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K19" s="17">
         <v>31</v>
@@ -1463,10 +1463,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="17">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C20" s="17">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E20" s="17">
         <v>22</v>
@@ -1475,10 +1475,10 @@
         <v>24</v>
       </c>
       <c r="H20" s="17">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I20" s="17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K20" s="17">
         <v>34</v>
@@ -1504,10 +1504,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="17">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="17">
         <v>23</v>
@@ -1516,10 +1516,10 @@
         <v>25</v>
       </c>
       <c r="H21" s="17">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I21" s="17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K21" s="17">
         <v>36</v>
@@ -1545,10 +1545,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="17">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C22" s="17">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" s="17">
         <v>25</v>
@@ -1557,10 +1557,10 @@
         <v>27</v>
       </c>
       <c r="H22" s="17">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I22" s="17">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K22" s="17">
         <v>38</v>
@@ -1586,10 +1586,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="17">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C23" s="17">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E23" s="17">
         <v>26</v>
@@ -1598,10 +1598,10 @@
         <v>29</v>
       </c>
       <c r="H23" s="17">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I23" s="17">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K23" s="17">
         <v>41</v>
@@ -1627,10 +1627,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="17">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C24" s="17">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E24" s="17">
         <v>29</v>
@@ -1639,10 +1639,10 @@
         <v>31</v>
       </c>
       <c r="H24" s="17">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I24" s="17">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K24" s="17">
         <v>44</v>
@@ -1668,10 +1668,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="17">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C25" s="17">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E25" s="17">
         <v>31</v>
@@ -1680,10 +1680,10 @@
         <v>34</v>
       </c>
       <c r="H25" s="17">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I25" s="17">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K25" s="17">
         <v>48</v>
@@ -1709,10 +1709,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="17">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C26" s="17">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E26" s="17">
         <v>36</v>
@@ -1721,10 +1721,10 @@
         <v>39</v>
       </c>
       <c r="H26" s="17">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="I26" s="17">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K26" s="17">
         <v>55</v>
